--- a/excel exercicios.xlsx
+++ b/excel exercicios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hants\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hants\OneDrive\Documentos\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436FF919-2B17-44E8-A632-B107F6BD169E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101DD92F-E504-4BD8-A817-5934A5C48691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{560AD6B6-F551-4D19-B7DD-EDB3F3BB5DF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{560AD6B6-F551-4D19-B7DD-EDB3F3BB5DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="exercício 1" sheetId="4" r:id="rId1"/>
@@ -1700,7 +1700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF451EE4-EE30-4C36-BDAF-F0020A9EF947}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -2197,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C313BA5-A0D1-43CF-8983-DE3B3E232F6A}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,8 +2255,8 @@
         <v>500</v>
       </c>
       <c r="E2" s="29" t="str">
-        <f>IF(D2&gt;=500,"EUROPA","AMERICA LATINA")</f>
-        <v>EUROPA</v>
+        <f>IF(D2&gt;500,"EUROPA","AMERICA LATINA")</f>
+        <v>AMERICA LATINA</v>
       </c>
       <c r="F2" s="31">
         <v>15</v>
@@ -2287,7 +2287,7 @@
         <v>50</v>
       </c>
       <c r="E3" s="29" t="str">
-        <f t="shared" ref="E3:E6" si="1">IF(D3&gt;=500,"EUROPA","AMERICA LATINA")</f>
+        <f t="shared" ref="E3:E6" si="1">IF(D3&gt;500,"EUROPA","AMERICA LATINA")</f>
         <v>AMERICA LATINA</v>
       </c>
       <c r="F3" s="31">

--- a/excel exercicios.xlsx
+++ b/excel exercicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hants\OneDrive\Documentos\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101DD92F-E504-4BD8-A817-5934A5C48691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAD47CD-51A4-4986-80AC-83698EF3C538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{560AD6B6-F551-4D19-B7DD-EDB3F3BB5DF9}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="exercício 3" sheetId="2" r:id="rId3"/>
     <sheet name="exercício 4" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+  <si>
+    <t>Lacta</t>
+  </si>
+  <si>
+    <t>Quant.</t>
+  </si>
+  <si>
+    <t>total c des 10%</t>
+  </si>
+  <si>
+    <t>Condição</t>
+  </si>
+  <si>
+    <t>Chocolate Branco</t>
+  </si>
+  <si>
+    <t>Chocolate ao Leite</t>
+  </si>
+  <si>
+    <t>Chocolate Amargo</t>
+  </si>
+  <si>
+    <t>Nestlé</t>
+  </si>
+  <si>
+    <t>total c des 20%</t>
+  </si>
+  <si>
+    <t>Garoto</t>
+  </si>
+  <si>
+    <t>total c des 30%</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Nestle Alimentos</t>
+  </si>
+  <si>
+    <t>Produtos</t>
+  </si>
+  <si>
+    <t>Produção</t>
+  </si>
+  <si>
+    <t>Metas de Produção</t>
+  </si>
+  <si>
+    <t>Situação de Produção</t>
+  </si>
   <si>
     <t>Nescau</t>
   </si>
@@ -51,27 +102,21 @@
     <t>Neston</t>
   </si>
   <si>
-    <t>Produção</t>
-  </si>
-  <si>
-    <t>Metas de Produção</t>
-  </si>
-  <si>
-    <t>Nestle Alimentos</t>
-  </si>
-  <si>
-    <t>Situação de Produção</t>
-  </si>
-  <si>
-    <t>Produtos</t>
-  </si>
-  <si>
     <t>Meta de venda</t>
   </si>
   <si>
     <t>Funcionário</t>
   </si>
   <si>
+    <t>Jan/Fev</t>
+  </si>
+  <si>
+    <t>Mar/Abr</t>
+  </si>
+  <si>
+    <t>Mai/Jun</t>
+  </si>
+  <si>
     <t>Mauricio</t>
   </si>
   <si>
@@ -90,15 +135,6 @@
     <t>Fernanda</t>
   </si>
   <si>
-    <t>Jan/Fev</t>
-  </si>
-  <si>
-    <t>Mar/Abr</t>
-  </si>
-  <si>
-    <t>Mai/Jun</t>
-  </si>
-  <si>
     <t>Premiação de 5%</t>
   </si>
   <si>
@@ -120,9 +156,21 @@
     <t>Produto</t>
   </si>
   <si>
+    <t>Produção (ton)</t>
+  </si>
+  <si>
+    <t>Mercado interno (ton)</t>
+  </si>
+  <si>
+    <t>Exportação (ton)</t>
+  </si>
+  <si>
     <t>Mercado destino</t>
   </si>
   <si>
+    <t>Valor unitário (kg)</t>
+  </si>
+  <si>
     <t>Valor em Reais de Exportação</t>
   </si>
   <si>
@@ -144,55 +192,10 @@
     <t>Laranja</t>
   </si>
   <si>
-    <t>Exportação (ton)</t>
-  </si>
-  <si>
-    <t>Mercado interno (ton)</t>
-  </si>
-  <si>
-    <t>Produção (ton)</t>
-  </si>
-  <si>
-    <t>Valor unitário (kg)</t>
-  </si>
-  <si>
-    <t>Lacta</t>
-  </si>
-  <si>
-    <t>Chocolate Branco</t>
-  </si>
-  <si>
-    <t>Chocolate Amargo</t>
-  </si>
-  <si>
-    <t>Chocolate ao Leite</t>
-  </si>
-  <si>
-    <t>Nestlé</t>
-  </si>
-  <si>
-    <t>Garoto</t>
-  </si>
-  <si>
-    <t>Quant.</t>
-  </si>
-  <si>
-    <t>total c des 10%</t>
-  </si>
-  <si>
-    <t>total c des 20%</t>
-  </si>
-  <si>
-    <t>total c des 30%</t>
-  </si>
-  <si>
-    <t>Condição</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Cotação do dólar</t>
+  </si>
+  <si>
+    <t>5,07</t>
   </si>
 </sst>
 </file>
@@ -204,7 +207,7 @@
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +305,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFBD2018"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,8 +355,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -422,11 +437,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,9 +531,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,6 +572,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,83 +876,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>10027</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1784683</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>5014</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDEB0C5-F339-C5A3-D793-D8DD0A0299C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="220580"/>
-          <a:ext cx="1784683" cy="1258302"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF4A"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="4000">
-              <a:solidFill>
-                <a:srgbClr val="BD2018"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>R$500</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1425,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71F75AD-1425-471F-B4E5-876A80D07342}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,25 +1421,25 @@
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="34"/>
+    <row r="1" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>15</v>
@@ -1467,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="9">
-        <f>(B2 * C2) * (1 - 10%)</f>
+        <f>(B2*C2)-(B2*C2*10%)</f>
         <v>27</v>
       </c>
       <c r="E2" s="10" t="str">
@@ -1476,9 +1457,9 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
         <v>20</v>
@@ -1487,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D4" si="0">(B3 * C3) * (1 - 10%)</f>
+        <f t="shared" ref="D3:D4" si="0">(B3*C3)-(B3*C3*10%)</f>
         <v>18</v>
       </c>
       <c r="E3" s="11" t="str">
@@ -1496,9 +1477,9 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
         <v>30</v>
@@ -1515,22 +1496,26 @@
         <v>Não pode comprar</v>
       </c>
       <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="34"/>
+      <c r="K4">
+        <f>(B2*C2)-(B2*C2*10%)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="33"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>40</v>
@@ -1539,7 +1524,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="9">
-        <f>(B6 * C6) * (1 - 20%)</f>
+        <f>(B6*C6)-(B6*C6*20%)</f>
         <v>192</v>
       </c>
       <c r="E6" s="10" t="str">
@@ -1548,9 +1533,9 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5">
         <v>30</v>
@@ -1559,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" ref="D7:D8" si="2">(B7 * C7) * (1 - 20%)</f>
+        <f t="shared" ref="D7:D8" si="2">(B7*C7)-(B7*C7*20%)</f>
         <v>24</v>
       </c>
       <c r="E7" s="11" t="str">
@@ -1568,9 +1553,9 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5">
         <v>15</v>
@@ -1588,21 +1573,21 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="34"/>
+    <row r="9" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="33"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B10" s="5">
         <v>20</v>
@@ -1611,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="9">
-        <f>(B10 * C10) * (1 - 30%)</f>
+        <f>(B10*C10)-(B10*C10*30%)</f>
         <v>14</v>
       </c>
       <c r="E10" s="11" t="str">
@@ -1620,9 +1605,9 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B11" s="5">
         <v>30</v>
@@ -1631,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" ref="D11:D12" si="3">(B11 * C11) * (1 - 30%)</f>
+        <f t="shared" ref="D11:D12" si="3">(B11*C11)-(B11*C11*30%)</f>
         <v>168</v>
       </c>
       <c r="E11" s="10" t="str">
@@ -1640,9 +1625,9 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5">
         <v>15</v>
@@ -1660,7 +1645,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1668,18 +1653,18 @@
       <c r="E13" s="12"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="33">
+        <v>11</v>
+      </c>
+      <c r="D14" s="32">
         <f>D2+D3+D4+D6+D7+D8+D10+D11+D12</f>
         <v>608</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1701,7 +1686,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,30 +1698,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="A1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B3" s="18">
         <v>1500</v>
@@ -1751,7 +1736,7 @@
     </row>
     <row r="4" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B4" s="18">
         <v>980</v>
@@ -1767,7 +1752,7 @@
     </row>
     <row r="5" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B5" s="18">
         <v>640</v>
@@ -1782,7 +1767,7 @@
     </row>
     <row r="6" spans="1:6" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B6" s="18">
         <v>830</v>
@@ -1814,345 +1799,347 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC458EA6-7F36-4A70-8593-B1714F4AFF9A}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
+        <v>500</v>
+      </c>
       <c r="B2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="23">
+        <v>26</v>
+      </c>
+      <c r="C2" s="22">
         <v>800</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>500</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>120</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
       <c r="B3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="23">
+        <v>27</v>
+      </c>
+      <c r="C3" s="22">
         <v>650</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>300</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>300</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
       <c r="B4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="23">
+        <v>28</v>
+      </c>
+      <c r="C4" s="22">
         <v>120</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>230</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>230</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
       <c r="B5" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="23">
+        <v>29</v>
+      </c>
+      <c r="C5" s="22">
         <v>1100</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>900</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>800</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
       <c r="B6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="23">
+        <v>30</v>
+      </c>
+      <c r="C6" s="22">
         <v>400</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>550</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>200</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
       <c r="B7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="23">
+        <v>31</v>
+      </c>
+      <c r="C7" s="22">
         <v>200</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>1100</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>800</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="A11" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>24</v>
+      <c r="B13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="28">
-        <f>IF(C2&gt;=500, C2*0.05, "não tem direito")</f>
+      <c r="A14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="27">
+        <f>IF(C2&gt;=$A$2,C2*5%,"não tem direito")</f>
         <v>40</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <f>IF(D2&gt;=500, D2*0.05, "não tem direito")</f>
         <v>25</v>
       </c>
-      <c r="D14" s="23" t="str">
+      <c r="D14" s="22" t="str">
         <f>IF(E2&gt;=500, E2*0.05, "não tem direito")</f>
         <v>não tem direito</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <f>IF(ISNUMBER(B14),B14,0) + IF(ISNUMBER(C14),C14,0) + IF(ISNUMBER(D14),D14,0)</f>
         <v>65</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="28">
-        <f t="shared" ref="B15:D19" si="0">IF(C3&gt;=500, C3*0.05, "não tem direito")</f>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="27">
+        <f t="shared" ref="B15:B19" si="0">IF(C3&gt;=$A$2,C3*5%,"não tem direito")</f>
         <v>32.5</v>
       </c>
-      <c r="C15" s="23" t="str">
+      <c r="C15" s="22" t="str">
+        <f t="shared" ref="C15:D19" si="1">IF(D3&gt;=500, D3*0.05, "não tem direito")</f>
+        <v>não tem direito</v>
+      </c>
+      <c r="D15" s="22" t="str">
+        <f>IF(E3&gt;=500, E3*0.05, "não tem direito")</f>
+        <v>não tem direito</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" ref="E15:E19" si="2">IF(ISNUMBER(B15),B15,0) + IF(ISNUMBER(C15),C15,0) + IF(ISNUMBER(D15),D15,0)</f>
+        <v>32.5</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="27" t="str">
         <f t="shared" si="0"/>
         <v>não tem direito</v>
       </c>
-      <c r="D15" s="23" t="str">
-        <f>IF(E3&gt;=500, E3*0.05, "não tem direito")</f>
+      <c r="C16" s="22" t="str">
+        <f t="shared" si="1"/>
         <v>não tem direito</v>
       </c>
-      <c r="E15" s="28">
-        <f t="shared" ref="E15:E19" si="1">IF(ISNUMBER(B15),B15,0) + IF(ISNUMBER(C15),C15,0) + IF(ISNUMBER(D15),D15,0)</f>
-        <v>32.5</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="23" t="str">
+      <c r="D16" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>não tem direito</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="27">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C17" s="27">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D17" s="22">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="27" t="str">
         <f t="shared" si="0"/>
         <v>não tem direito</v>
       </c>
-      <c r="C16" s="23" t="str">
+      <c r="C18" s="27">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+      <c r="D18" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>não tem direito</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="2"/>
+        <v>27.5</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="27" t="str">
         <f t="shared" si="0"/>
         <v>não tem direito</v>
       </c>
-      <c r="D16" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>não tem direito</v>
-      </c>
-      <c r="E16" s="28">
+      <c r="C19" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="28">
-        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C17" s="28">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="D17" s="23">
-        <f t="shared" si="0"/>
+      <c r="D19" s="22">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E17" s="28">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>não tem direito</v>
-      </c>
-      <c r="C18" s="28">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
-      </c>
-      <c r="D18" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>não tem direito</v>
-      </c>
-      <c r="E18" s="28">
-        <f t="shared" si="1"/>
-        <v>27.5</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>não tem direito</v>
-      </c>
-      <c r="C19" s="28">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="D19" s="23">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E19" s="28">
-        <f t="shared" si="1"/>
+      <c r="E19" s="27">
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2161,10 +2148,10 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="23">
+      <c r="A21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="22">
         <f>SUM(E14:E19)</f>
         <v>360</v>
       </c>
@@ -2175,17 +2162,18 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2198,7 +2186,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,193 +2197,193 @@
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>29</v>
+      <c r="B1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="29">
+      <c r="A2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="28">
         <v>1000</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>500</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <f>B2-C2</f>
         <v>500</v>
       </c>
-      <c r="E2" s="29" t="str">
-        <f>IF(D2&gt;500,"EUROPA","AMERICA LATINA")</f>
-        <v>AMERICA LATINA</v>
-      </c>
-      <c r="F2" s="31">
+      <c r="E2" s="28" t="str">
+        <f>IF(D2&gt;=500,"EUROPA","AMERICA LATINA")</f>
+        <v>EUROPA</v>
+      </c>
+      <c r="F2" s="30">
         <v>15</v>
       </c>
-      <c r="G2" s="31">
-        <f>D2 *F2*1000</f>
-        <v>7500000</v>
-      </c>
-      <c r="H2" s="32">
+      <c r="G2" s="30">
+        <f>D2*F2</f>
+        <v>7500</v>
+      </c>
+      <c r="H2" s="31">
         <f>G2 /1.7</f>
-        <v>4411764.7058823528</v>
+        <v>4411.7647058823532</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="29">
+      <c r="A3" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="28">
         <v>800</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>750</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <f t="shared" ref="D3:D6" si="0">B3-C3</f>
         <v>50</v>
       </c>
-      <c r="E3" s="29" t="str">
-        <f t="shared" ref="E3:E6" si="1">IF(D3&gt;500,"EUROPA","AMERICA LATINA")</f>
+      <c r="E3" s="28" t="str">
+        <f t="shared" ref="E3:E6" si="1">IF(D3&gt;=500,"EUROPA","AMERICA LATINA")</f>
         <v>AMERICA LATINA</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>10</v>
       </c>
-      <c r="G3" s="31">
-        <f t="shared" ref="G3:G6" si="2">D3 *F3*1000</f>
-        <v>500000</v>
-      </c>
-      <c r="H3" s="32">
-        <f t="shared" ref="H3:H6" si="3">G3 /1.7</f>
-        <v>294117.64705882355</v>
+      <c r="G3" s="30">
+        <f t="shared" ref="G3:G6" si="2">D3*F3</f>
+        <v>500</v>
+      </c>
+      <c r="H3" s="31">
+        <f>G3 /1.7</f>
+        <v>294.11764705882354</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="29">
+      <c r="A4" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="28">
         <v>10200</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>800</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <f t="shared" si="0"/>
         <v>9400</v>
       </c>
-      <c r="E4" s="29" t="str">
+      <c r="E4" s="28" t="str">
         <f t="shared" si="1"/>
         <v>EUROPA</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <v>5</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <f t="shared" si="2"/>
-        <v>47000000</v>
-      </c>
-      <c r="H4" s="32">
-        <f t="shared" si="3"/>
-        <v>27647058.823529411</v>
+        <v>47000</v>
+      </c>
+      <c r="H4" s="31">
+        <f t="shared" ref="H4:H6" si="3">G4 /1.7</f>
+        <v>27647.058823529413</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="29">
+      <c r="A5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="28">
         <v>6000</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>1000</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E5" s="29" t="str">
+      <c r="E5" s="28" t="str">
         <f t="shared" si="1"/>
         <v>EUROPA</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>12</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <f t="shared" si="2"/>
-        <v>60000000</v>
-      </c>
-      <c r="H5" s="32">
+        <v>60000</v>
+      </c>
+      <c r="H5" s="31">
         <f t="shared" si="3"/>
-        <v>35294117.647058822</v>
+        <v>35294.117647058825</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="A6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="28">
         <v>2000</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>750</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
-      <c r="E6" s="29" t="str">
+      <c r="E6" s="28" t="str">
         <f t="shared" si="1"/>
         <v>EUROPA</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>1</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <f t="shared" si="2"/>
-        <v>1250000</v>
-      </c>
-      <c r="H6" s="32">
+        <v>1250</v>
+      </c>
+      <c r="H6" s="31">
         <f t="shared" si="3"/>
-        <v>735294.1176470588</v>
+        <v>735.2941176470589</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2420,11 +2408,11 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:10" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="31">
-        <v>1.7</v>
+      <c r="G10" s="30" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
